--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>cost_crystal</t>
   </si>
   <si>
-    <t>class</t>
+    <t>classType</t>
   </si>
   <si>
     <t>{1000001，1000002，1000003}</t>
@@ -172,12 +172,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,12 +189,56 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,63 +251,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,11 +299,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,44 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,187 +339,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,58 +533,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,11 +566,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,153 +604,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -791,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1138,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>

--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,9 +172,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -187,28 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +195,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,57 +216,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,9 +240,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,7 +264,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,187 +339,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,11 +533,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,73 +625,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,13 +1135,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
@@ -1188,14 +1188,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="8:8">
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2000002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="8:8">
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2000004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2000005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2000006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2999999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>{1000001，1000002，1000003}</t>
   </si>
   <si>
-    <t>{1,2,3}</t>
+    <t>{1，2，3}</t>
   </si>
 </sst>
 </file>
@@ -173,9 +173,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,7 +187,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +224,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -247,9 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,13 +286,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -278,19 +293,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -307,24 +323,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,187 +339,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +530,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,15 +572,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -577,6 +583,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +613,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -606,30 +630,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>CL</author>
+    <author>zsbin</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -136,12 +137,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否默认显示
+1为默认显示
+2为需要通过合成卷轴开启显示
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>id</t>
   </si>
@@ -161,6 +187,9 @@
     <t>classType</t>
   </si>
   <si>
+    <t>isShow</t>
+  </si>
+  <si>
     <t>{1000001，1000002，1000003}</t>
   </si>
   <si>
@@ -172,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,6 +216,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -195,6 +238,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,7 +261,77 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,105 +353,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -339,55 +368,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,127 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,21 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,15 +573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,11 +592,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,17 +659,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -638,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,7 +1167,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1148,7 +1177,7 @@
     <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,8 +1196,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1176,15 +1208,18 @@
         <v>2000001</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1000</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
     </row>
@@ -1196,15 +1231,18 @@
         <v>2000002</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="1"/>
@@ -1217,15 +1255,18 @@
         <v>2000003</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" s="1"/>
@@ -1238,10 +1279,10 @@
         <v>2000004</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1249,9 +1290,12 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1259,10 +1303,10 @@
         <v>2000005</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>1000</v>
@@ -1270,8 +1314,11 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1279,10 +1326,10 @@
         <v>2000006</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -1290,8 +1337,11 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1299,16 +1349,19 @@
         <v>2999999</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>1000</v>
       </c>
       <c r="F8">
         <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -216,54 +216,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,40 +237,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,16 +267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,6 +283,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -352,8 +314,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,25 +368,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,157 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,80 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,12 +579,86 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,12 +162,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>CL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+重复获得补偿(暂时直接补偿魔晶)
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>id</t>
   </si>
@@ -190,6 +213,9 @@
     <t>isShow</t>
   </si>
   <si>
+    <t>compensate</t>
+  </si>
+  <si>
     <t>{1000001，1000002，1000003}</t>
   </si>
   <si>
@@ -201,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -216,6 +242,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -223,9 +256,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,23 +285,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,9 +332,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +355,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -291,69 +378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,187 +394,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,32 +585,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,7 +607,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,32 +680,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,7 +1193,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1175,9 +1201,10 @@
     <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,8 +1226,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1208,10 +1238,10 @@
         <v>2000001</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -1221,6 +1251,9 @@
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1231,10 +1264,10 @@
         <v>2000002</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -1245,7 +1278,9 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
@@ -1255,10 +1290,10 @@
         <v>2000003</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -1269,7 +1304,9 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
@@ -1279,10 +1316,10 @@
         <v>2000004</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1293,9 +1330,11 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1303,10 +1342,10 @@
         <v>2000005</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>1000</v>
@@ -1317,8 +1356,11 @@
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="H6">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1326,10 +1368,10 @@
         <v>2000006</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -1340,8 +1382,11 @@
       <c r="G7">
         <v>2</v>
       </c>
+      <c r="H7">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1349,10 +1394,10 @@
         <v>2999999</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -1362,6 +1407,9 @@
       </c>
       <c r="G8">
         <v>2</v>
+      </c>
+      <c r="H8">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -216,10 +216,10 @@
     <t>compensate</t>
   </si>
   <si>
-    <t>{1000001，1000002，1000003}</t>
+    <t>{1000001,1000002,1000003}</t>
   </si>
   <si>
-    <t>{1，2，3}</t>
+    <t>{1,2,3}</t>
   </si>
 </sst>
 </file>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -255,6 +255,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -269,11 +277,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,40 +299,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +332,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -341,45 +371,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,43 +400,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,133 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,23 +606,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +656,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,15 +685,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,145 +693,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="28080" windowHeight="13185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,9 +228,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -249,45 +249,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,6 +307,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,9 +331,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,60 +384,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,187 +394,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,16 +613,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,16 +672,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,13 +1190,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
@@ -1410,6 +1410,58 @@
       </c>
       <c r="H8">
         <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1001</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3000001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1002</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3000002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13185"/>
+    <workbookView yWindow="7575" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -249,50 +249,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -309,7 +273,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,7 +281,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,6 +309,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -338,9 +362,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,40 +379,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -394,187 +394,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +585,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,26 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,41 +671,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,16 +705,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,115 +723,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView yWindow="7575" windowWidth="9210" windowHeight="6570"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -250,6 +250,128 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,128 +384,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -400,49 +400,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,127 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,11 +588,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,9 +644,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,26 +670,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1429,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>1000</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/other/配置表/h-合成配置表.xlsx
+++ b/other/配置表/h-合成配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -252,6 +252,90 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,60 +348,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,47 +370,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,37 +400,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,139 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +585,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -626,65 +685,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,145 +693,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,17 +1190,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F9" sqref="F9:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1461,6 +1463,344 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1003</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3000003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1004</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3000004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1005</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3000005</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1006</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3000006</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1007</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3000007</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1008</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3000008</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1009</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3000009</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1010</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3000010</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1011</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3000011</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1012</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3000012</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1013</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3000013</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>1000</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1014</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3000014</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1015</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3000015</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>1000</v>
       </c>
     </row>
